--- a/Test Open Xml/testdata/testsetnamedrange.xlsx
+++ b/Test Open Xml/testdata/testsetnamedrange.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R80f2bd7af45c4569"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R23ea7ad554874284"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="parameters" localSheetId="0">Sheet1!$B$2:$D$2</x:definedName>
